--- a/berekening_boot.xlsx
+++ b/berekening_boot.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wdevries/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wdevries/Documents/GIT/boot/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540"/>
   </bookViews>
   <sheets>
     <sheet name="Vaste kosten - Berekeningen Boo" sheetId="1" r:id="rId1"/>
@@ -413,14 +413,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1581,11 +1581,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1595,15 +1595,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -1637,10 +1637,10 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>130000</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>130000</v>
       </c>
       <c r="D4" s="10">
@@ -1655,11 +1655,11 @@
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <f>300*25</f>
         <v>7500</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <f>300*20</f>
         <v>6000</v>
       </c>
@@ -1675,17 +1675,17 @@
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <f>55*3.5*2*25</f>
         <v>9625</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <f>55*3.5*2*20</f>
         <v>7700</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10">
-        <f t="shared" ref="E6:E17" si="0">C6*1</f>
+        <f t="shared" ref="E6:E16" si="0">C6*1</f>
         <v>7700</v>
       </c>
       <c r="F6" s="10"/>
@@ -1695,10 +1695,10 @@
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>10000</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>10000</v>
       </c>
       <c r="D7" s="10"/>
@@ -1760,23 +1760,23 @@
         <v>11</v>
       </c>
       <c r="B10" s="12">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="9">
         <f>SUM(B5:B20)</f>
-        <v>190125</v>
+        <v>197725</v>
       </c>
       <c r="H10" s="9">
         <f>SUM(C5:C20)</f>
-        <v>177200</v>
+        <v>172200</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1931,7 +1931,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="12">
-        <v>5000</v>
+        <v>13600</v>
       </c>
       <c r="C19" s="10">
         <v>5000</v>
@@ -1952,7 +1952,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="12">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="C20" s="10">
         <v>10000</v>
@@ -1971,11 +1971,11 @@
       </c>
       <c r="B21" s="8">
         <f>SUM(B3:B20)</f>
-        <v>320125</v>
+        <v>327725</v>
       </c>
       <c r="C21" s="9">
         <f>SUM(C3:C20)</f>
-        <v>307200</v>
+        <v>302200</v>
       </c>
       <c r="D21" s="10">
         <f>SUM(D4:D20)</f>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" ref="E21:F21" si="1">SUM(E4:E20)</f>
-        <v>117450</v>
+        <v>112450</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="1"/>
@@ -2042,13 +2042,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -2212,14 +2212,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -2396,7 +2396,7 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2410,13 +2410,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -2437,15 +2437,15 @@
       </c>
       <c r="B3" s="15">
         <f>SUM('Vaste kosten - Berekeningen Boo'!D21:E21)-SUM('inkomsten - Tabel 1'!$C$9:C$12)+'Variabele kosten - Tabel 1'!$B12</f>
-        <v>228970.57142857142</v>
+        <v>223970.57142857142</v>
       </c>
       <c r="C3" s="15">
         <f>SUM('Vaste kosten - Berekeningen Boo'!D21:E21)-SUM('inkomsten - Tabel 1'!$C$9:D$12)+'Variabele kosten - Tabel 1'!$B12*2</f>
-        <v>203291.14285714284</v>
+        <v>198291.14285714284</v>
       </c>
       <c r="D3" s="15">
         <f>SUM('Vaste kosten - Berekeningen Boo'!D21:E21)-SUM('inkomsten - Tabel 1'!$C$9:E$12)+('Variabele kosten - Tabel 1'!$B12*3)</f>
-        <v>170411.71428571429</v>
+        <v>165411.71428571429</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -2455,15 +2455,15 @@
       </c>
       <c r="B4" s="17">
         <f>SUM('Vaste kosten - Berekeningen Boo'!D21:E21)-SUM('inkomsten - Tabel 1'!$C$3:C$6)+('Variabele kosten - Tabel 1'!$B$12*1)</f>
-        <v>221770.57142857142</v>
+        <v>216770.57142857142</v>
       </c>
       <c r="C4" s="22">
         <f>SUM('Vaste kosten - Berekeningen Boo'!D21:E21)-SUM('inkomsten - Tabel 1'!C3:D6)+('Variabele kosten - Tabel 1'!$B$12*2)</f>
-        <v>188891.14285714284</v>
+        <v>183891.14285714284</v>
       </c>
       <c r="D4" s="22">
         <f>SUM('Vaste kosten - Berekeningen Boo'!D21:E21)-SUM('inkomsten - Tabel 1'!C3:E6)+('Variabele kosten - Tabel 1'!$B$12*3)</f>
-        <v>141611.71428571429</v>
+        <v>136611.71428571429</v>
       </c>
       <c r="E4" s="10"/>
     </row>
